--- a/data/trans_orig/P1409-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1409-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73128040-BC8B-492E-A135-5912877FAABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40020316-B545-4E4B-BE26-32267905B38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D32FF4EC-7C97-4C92-B5F2-1825FCBF16C6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{14C02D68-2A39-43A8-A727-2E011D4AE46B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="310">
   <si>
     <t>Población con diagnóstico de asma en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -418,502 +418,508 @@
     <t>3,17%</t>
   </si>
   <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
   </si>
   <si>
     <t>4,42%</t>
   </si>
   <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
   </si>
   <si>
     <t>3,79%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
   </si>
   <si>
     <t>96,83%</t>
   </si>
   <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
   </si>
   <si>
     <t>95,58%</t>
   </si>
   <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
   </si>
   <si>
     <t>96,21%</t>
   </si>
   <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
   </si>
   <si>
     <t>3,21%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
   </si>
   <si>
     <t>3,25%</t>
   </si>
   <si>
-    <t>5,03%</t>
+    <t>4,97%</t>
   </si>
   <si>
     <t>3,23%</t>
   </si>
   <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
     <t>2,25%</t>
   </si>
   <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de asma en 2023 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
     <t>4,34%</t>
   </si>
   <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
   </si>
   <si>
     <t>95,66%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de asma en 2023 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
   </si>
   <si>
     <t>3,84%</t>
@@ -1373,7 +1379,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D515C2BD-8844-4F02-8FF7-AAA506BD5032}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70D9DAD-B392-426A-A4D0-2D38B1756AC6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2436,7 +2442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F4B9A1D-D02C-4C88-928E-DC32109D6D54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A703FE-6AF0-4E69-9398-8EC8A14C1189}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2733,7 +2739,7 @@
         <v>146</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>147</v>
@@ -2748,10 +2754,10 @@
         <v>148</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2766,13 +2772,13 @@
         <v>540358</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H8" s="7">
         <v>533</v>
@@ -2781,13 +2787,13 @@
         <v>541321</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>155</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="M8" s="7">
         <v>1055</v>
@@ -2796,13 +2802,13 @@
         <v>1081679</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>157</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2870,13 +2876,13 @@
         <v>23038</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>106</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -2885,13 +2891,13 @@
         <v>45932</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -2900,13 +2906,13 @@
         <v>68970</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,10 +2927,10 @@
         <v>999393</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>116</v>
@@ -2936,13 +2942,13 @@
         <v>996981</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>167</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="M11" s="7">
         <v>1865</v>
@@ -2951,13 +2957,13 @@
         <v>1996374</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3025,13 +3031,13 @@
         <v>11470</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -3040,13 +3046,13 @@
         <v>30874</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -3055,13 +3061,13 @@
         <v>42344</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>132</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3076,10 +3082,10 @@
         <v>748082</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>179</v>
@@ -3183,10 +3189,10 @@
         <v>143</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>38</v>
+        <v>185</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="H16" s="7">
         <v>39</v>
@@ -3198,10 +3204,10 @@
         <v>186</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M16" s="7">
         <v>69</v>
@@ -3210,13 +3216,13 @@
         <v>71273</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3231,13 +3237,13 @@
         <v>907481</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="H17" s="7">
         <v>920</v>
@@ -3246,13 +3252,13 @@
         <v>1002593</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>194</v>
+        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>1822</v>
@@ -3261,13 +3267,13 @@
         <v>1910073</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3335,13 +3341,13 @@
         <v>86185</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H19" s="7">
         <v>132</v>
@@ -3350,13 +3356,13 @@
         <v>141158</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M19" s="7">
         <v>216</v>
@@ -3365,13 +3371,13 @@
         <v>227343</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,13 +3392,13 @@
         <v>3308165</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H20" s="7">
         <v>3206</v>
@@ -3401,13 +3407,13 @@
         <v>3403384</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M20" s="7">
         <v>6353</v>
@@ -3416,13 +3422,13 @@
         <v>6711549</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,7 +3505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F2F6FE-FA47-4353-8658-E99F36649B19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B120D06C-8A53-49E7-B987-25C522BAF73C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3516,7 +3522,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3623,13 +3629,13 @@
         <v>2062</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -3638,13 +3644,13 @@
         <v>4370</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -3656,10 +3662,10 @@
         <v>53</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3674,7 +3680,7 @@
         <v>99920</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>221</v>
@@ -3689,7 +3695,7 @@
         <v>126363</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>222</v>
@@ -3865,7 +3871,7 @@
         <v>241</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4276,10 +4282,10 @@
         <v>282</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>150</v>
+        <v>283</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,13 +4300,13 @@
         <v>934635</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H17" s="7">
         <v>1459</v>
@@ -4309,13 +4315,13 @@
         <v>1061529</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M17" s="7">
         <v>2433</v>
@@ -4324,13 +4330,13 @@
         <v>1996164</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>157</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4398,13 +4404,13 @@
         <v>129993</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H19" s="7">
         <v>267</v>
@@ -4413,13 +4419,13 @@
         <v>189553</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M19" s="7">
         <v>386</v>
@@ -4428,13 +4434,13 @@
         <v>319546</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>91</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,13 +4455,13 @@
         <v>3251065</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H20" s="7">
         <v>5087</v>
@@ -4464,13 +4470,13 @@
         <v>3610813</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M20" s="7">
         <v>8340</v>
@@ -4479,10 +4485,10 @@
         <v>6861878</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>98</v>

--- a/data/trans_orig/P1409-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1409-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40020316-B545-4E4B-BE26-32267905B38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{60947817-BA97-4101-A46B-F25EE44FE47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{14C02D68-2A39-43A8-A727-2E011D4AE46B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2E7B9623-D196-4D30-A3FE-10D25583ED66}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="304">
   <si>
     <t>Población con diagnóstico de asma en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -79,895 +79,877 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,36%</t>
+    <t>4,5%</t>
   </si>
   <si>
     <t>2,79%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
   </si>
   <si>
     <t>1,75%</t>
   </si>
   <si>
-    <t>0,45%</t>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de asma en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
   </si>
   <si>
     <t>4,29%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
   </si>
   <si>
     <t>95,71%</t>
   </si>
   <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de asma en 2023 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
   </si>
   <si>
     <t>3,2%</t>
   </si>
   <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
   </si>
   <si>
     <t>96,8%</t>
   </si>
   <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
   </si>
   <si>
     <t>96,1%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de asma en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de asma en 2023 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
   </si>
 </sst>
 </file>
@@ -1379,7 +1361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70D9DAD-B392-426A-A4D0-2D38B1756AC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28724A49-3098-4EF4-8E06-7725BEA6E5C7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2141,10 +2123,10 @@
         <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -2153,13 +2135,13 @@
         <v>56071</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2174,13 +2156,13 @@
         <v>923141</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>973</v>
@@ -2189,13 +2171,13 @@
         <v>1020428</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1860</v>
@@ -2204,13 +2186,13 @@
         <v>1943569</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2278,13 +2260,13 @@
         <v>65421</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>88</v>
@@ -2293,13 +2275,13 @@
         <v>96180</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>151</v>
@@ -2308,13 +2290,13 @@
         <v>161602</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2329,13 +2311,13 @@
         <v>3361358</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>3207</v>
@@ -2344,13 +2326,13 @@
         <v>3457736</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>6353</v>
@@ -2359,13 +2341,13 @@
         <v>6819092</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2421,7 +2403,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2442,7 +2424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A703FE-6AF0-4E69-9398-8EC8A14C1189}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF873BE-3DCE-4510-9417-FCBD25311ED5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2459,7 +2441,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2566,13 +2548,13 @@
         <v>3694</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -2581,13 +2563,13 @@
         <v>5008</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -2596,10 +2578,10 @@
         <v>8702</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>133</v>
@@ -2638,7 +2620,7 @@
         <v>138</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="M5" s="7">
         <v>219</v>
@@ -2647,13 +2629,13 @@
         <v>221204</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>141</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2721,13 +2703,13 @@
         <v>17896</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -2736,13 +2718,13 @@
         <v>18158</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
@@ -2751,13 +2733,13 @@
         <v>36054</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2772,13 +2754,13 @@
         <v>540358</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>533</v>
@@ -2787,13 +2769,13 @@
         <v>541321</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M8" s="7">
         <v>1055</v>
@@ -2802,13 +2784,13 @@
         <v>1081679</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2879,7 +2861,7 @@
         <v>157</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>158</v>
@@ -2894,10 +2876,10 @@
         <v>159</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -2906,13 +2888,13 @@
         <v>68970</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>93</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2927,13 +2909,13 @@
         <v>999393</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="H11" s="7">
         <v>936</v>
@@ -2942,13 +2924,13 @@
         <v>996981</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="M11" s="7">
         <v>1865</v>
@@ -2957,13 +2939,13 @@
         <v>1996374</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>168</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3031,13 +3013,13 @@
         <v>11470</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -3046,7 +3028,7 @@
         <v>30874</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>172</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>173</v>
@@ -3064,10 +3046,10 @@
         <v>175</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,13 +3064,13 @@
         <v>748082</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H14" s="7">
         <v>707</v>
@@ -3097,13 +3079,13 @@
         <v>754137</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>180</v>
+        <v>99</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M14" s="7">
         <v>1392</v>
@@ -3112,13 +3094,13 @@
         <v>1502219</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3186,13 +3168,13 @@
         <v>30086</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="H16" s="7">
         <v>39</v>
@@ -3201,13 +3183,13 @@
         <v>41186</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M16" s="7">
         <v>69</v>
@@ -3216,13 +3198,13 @@
         <v>71273</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>186</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,13 +3219,13 @@
         <v>907481</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
         <v>920</v>
@@ -3252,13 +3234,13 @@
         <v>1002593</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="M17" s="7">
         <v>1822</v>
@@ -3267,13 +3249,13 @@
         <v>1910073</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,7 +3466,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3505,7 +3487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B120D06C-8A53-49E7-B987-25C522BAF73C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32BFEE4-4691-46F2-80AE-C9ACF161EAD1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3644,7 +3626,7 @@
         <v>4370</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>216</v>
@@ -3659,13 +3641,13 @@
         <v>6432</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>53</v>
+        <v>218</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,10 +3662,10 @@
         <v>99920</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -3695,13 +3677,13 @@
         <v>126363</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M5" s="7">
         <v>349</v>
@@ -3710,13 +3692,13 @@
         <v>226283</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>61</v>
+        <v>225</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3784,13 +3766,13 @@
         <v>29495</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -3799,13 +3781,13 @@
         <v>19319</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>230</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -3814,13 +3796,13 @@
         <v>48814</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3835,13 +3817,13 @@
         <v>520328</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H8" s="7">
         <v>959</v>
@@ -3850,13 +3832,13 @@
         <v>572674</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>239</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
         <v>1541</v>
@@ -3871,7 +3853,7 @@
         <v>241</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,13 +3951,13 @@
         <v>86024</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,13 +3972,13 @@
         <v>993273</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H11" s="7">
         <v>1453</v>
@@ -4005,13 +3987,13 @@
         <v>1017391</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M11" s="7">
         <v>2379</v>
@@ -4020,13 +4002,13 @@
         <v>2010665</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>257</v>
+        <v>83</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>259</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,13 +4076,13 @@
         <v>23009</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>260</v>
+        <v>76</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="H13" s="7">
         <v>61</v>
@@ -4109,13 +4091,13 @@
         <v>40011</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="M13" s="7">
         <v>79</v>
@@ -4124,13 +4106,13 @@
         <v>63020</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,10 +4130,10 @@
         <v>134</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>269</v>
+        <v>85</v>
       </c>
       <c r="H14" s="7">
         <v>983</v>
@@ -4160,13 +4142,13 @@
         <v>832855</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="M14" s="7">
         <v>1638</v>
@@ -4175,13 +4157,13 @@
         <v>1535764</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,13 +4231,13 @@
         <v>30768</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="H16" s="7">
         <v>99</v>
@@ -4264,13 +4246,13 @@
         <v>84488</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="M16" s="7">
         <v>131</v>
@@ -4279,13 +4261,13 @@
         <v>115256</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,13 +4282,13 @@
         <v>934635</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="H17" s="7">
         <v>1459</v>
@@ -4315,13 +4297,13 @@
         <v>1061529</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="M17" s="7">
         <v>2433</v>
@@ -4330,13 +4312,13 @@
         <v>1996164</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4404,13 +4386,13 @@
         <v>129993</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="H19" s="7">
         <v>267</v>
@@ -4419,13 +4401,13 @@
         <v>189553</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="M19" s="7">
         <v>386</v>
@@ -4434,13 +4416,13 @@
         <v>319546</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>91</v>
+        <v>293</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4455,13 +4437,13 @@
         <v>3251065</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="H20" s="7">
         <v>5087</v>
@@ -4470,13 +4452,13 @@
         <v>3610813</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="M20" s="7">
         <v>8340</v>
@@ -4485,13 +4467,13 @@
         <v>6861878</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>98</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4547,7 +4529,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1409-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1409-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60947817-BA97-4101-A46B-F25EE44FE47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{641ADB90-6F91-40D4-9D55-D6670D042B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2E7B9623-D196-4D30-A3FE-10D25583ED66}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FB0DA3FB-74FA-491B-9EB3-12C53E11FB67}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="308">
   <si>
     <t>Población con diagnóstico de asma en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -70,7 +70,7 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,74%</t>
@@ -79,877 +79,889 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de asma en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de asma en 2023 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
     <t>4,5%</t>
   </si>
   <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,26%</t>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
   </si>
   <si>
     <t>95,5%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
   </si>
   <si>
     <t>3,24%</t>
   </si>
   <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
   </si>
   <si>
     <t>96,76%</t>
   </si>
   <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
     <t>1,92%</t>
   </si>
   <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
   </si>
   <si>
     <t>98,08%</t>
   </si>
   <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de asma en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de asma en 2023 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
   </si>
   <si>
     <t>6,43%</t>
   </si>
   <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
   </si>
   <si>
     <t>93,57%</t>
   </si>
   <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
     <t>95,75%</t>
   </si>
   <si>
     <t>95,55%</t>
   </si>
   <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
+    <t>94,82%</t>
   </si>
 </sst>
 </file>
@@ -1361,7 +1373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28724A49-3098-4EF4-8E06-7725BEA6E5C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A54E5E-8D2D-4F07-89A6-D4AAF0DD9087}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2123,10 +2135,10 @@
         <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -2135,13 +2147,13 @@
         <v>56071</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2156,13 +2168,13 @@
         <v>923141</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>973</v>
@@ -2171,13 +2183,13 @@
         <v>1020428</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="M17" s="7">
         <v>1860</v>
@@ -2186,13 +2198,13 @@
         <v>1943569</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2260,13 +2272,13 @@
         <v>65421</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>88</v>
@@ -2275,13 +2287,13 @@
         <v>96180</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>151</v>
@@ -2290,13 +2302,13 @@
         <v>161602</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2311,13 +2323,13 @@
         <v>3361358</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>3207</v>
@@ -2326,13 +2338,13 @@
         <v>3457736</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>6353</v>
@@ -2341,13 +2353,13 @@
         <v>6819092</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2403,7 +2415,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2424,7 +2436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF873BE-3DCE-4510-9417-FCBD25311ED5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB7A566B-40D2-4DAF-BE4F-39942AD5E4D1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2441,7 +2453,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2548,13 +2560,13 @@
         <v>3694</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -2563,13 +2575,13 @@
         <v>5008</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -2578,10 +2590,10 @@
         <v>8702</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>133</v>
@@ -2620,7 +2632,7 @@
         <v>138</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>219</v>
@@ -2629,13 +2641,13 @@
         <v>221204</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2703,13 +2715,13 @@
         <v>17896</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -2718,13 +2730,13 @@
         <v>18158</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
@@ -2733,13 +2745,13 @@
         <v>36054</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2754,13 +2766,13 @@
         <v>540358</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H8" s="7">
         <v>533</v>
@@ -2769,13 +2781,13 @@
         <v>541321</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="M8" s="7">
         <v>1055</v>
@@ -2784,13 +2796,13 @@
         <v>1081679</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2858,13 +2870,13 @@
         <v>23038</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -2873,13 +2885,13 @@
         <v>45932</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -2888,13 +2900,13 @@
         <v>68970</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2909,13 +2921,13 @@
         <v>999393</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>165</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="H11" s="7">
         <v>936</v>
@@ -2942,10 +2954,10 @@
         <v>169</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3019,7 +3031,7 @@
         <v>172</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -3028,13 +3040,13 @@
         <v>30874</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>173</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -3043,13 +3055,13 @@
         <v>42344</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,13 +3076,13 @@
         <v>748082</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H14" s="7">
         <v>707</v>
@@ -3079,13 +3091,13 @@
         <v>754137</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M14" s="7">
         <v>1392</v>
@@ -3094,13 +3106,13 @@
         <v>1502219</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3168,13 +3180,13 @@
         <v>30086</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>181</v>
+        <v>38</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H16" s="7">
         <v>39</v>
@@ -3183,13 +3195,13 @@
         <v>41186</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M16" s="7">
         <v>69</v>
@@ -3198,13 +3210,13 @@
         <v>71273</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3219,13 +3231,13 @@
         <v>907481</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>189</v>
+        <v>47</v>
       </c>
       <c r="H17" s="7">
         <v>920</v>
@@ -3234,13 +3246,13 @@
         <v>1002593</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>104</v>
+        <v>194</v>
       </c>
       <c r="M17" s="7">
         <v>1822</v>
@@ -3249,13 +3261,13 @@
         <v>1910073</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>194</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3323,13 +3335,13 @@
         <v>86185</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H19" s="7">
         <v>132</v>
@@ -3338,13 +3350,13 @@
         <v>141158</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M19" s="7">
         <v>216</v>
@@ -3353,13 +3365,13 @@
         <v>227343</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,13 +3386,13 @@
         <v>3308165</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H20" s="7">
         <v>3206</v>
@@ -3389,13 +3401,13 @@
         <v>3403384</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M20" s="7">
         <v>6353</v>
@@ -3404,13 +3416,13 @@
         <v>6711549</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,7 +3478,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3487,7 +3499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32BFEE4-4691-46F2-80AE-C9ACF161EAD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F48474-B773-4E3D-98BD-544C229FB799}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3504,7 +3516,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3611,13 +3623,13 @@
         <v>2062</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -3626,13 +3638,13 @@
         <v>4370</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -3641,7 +3653,7 @@
         <v>6432</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>218</v>
+        <v>53</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>219</v>
@@ -3662,10 +3674,10 @@
         <v>99920</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -3680,10 +3692,10 @@
         <v>169</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M5" s="7">
         <v>349</v>
@@ -3692,13 +3704,13 @@
         <v>226283</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3766,13 +3778,13 @@
         <v>29495</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H7" s="7">
         <v>35</v>
@@ -3781,13 +3793,13 @@
         <v>19319</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -3796,13 +3808,13 @@
         <v>48814</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,13 +3829,13 @@
         <v>520328</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H8" s="7">
         <v>959</v>
@@ -3832,13 +3844,13 @@
         <v>572674</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M8" s="7">
         <v>1541</v>
@@ -3853,7 +3865,7 @@
         <v>241</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3951,13 +3963,13 @@
         <v>86024</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>75</v>
+        <v>248</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>40</v>
+        <v>249</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,13 +3984,13 @@
         <v>993273</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H11" s="7">
         <v>1453</v>
@@ -3987,13 +3999,13 @@
         <v>1017391</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M11" s="7">
         <v>2379</v>
@@ -4002,13 +4014,13 @@
         <v>2010665</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>83</v>
+        <v>257</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>48</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,13 +4088,13 @@
         <v>23009</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>76</v>
+        <v>260</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="H13" s="7">
         <v>61</v>
@@ -4091,13 +4103,13 @@
         <v>40011</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="M13" s="7">
         <v>79</v>
@@ -4106,13 +4118,13 @@
         <v>63020</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,10 +4142,10 @@
         <v>134</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>85</v>
+        <v>269</v>
       </c>
       <c r="H14" s="7">
         <v>983</v>
@@ -4142,13 +4154,13 @@
         <v>832855</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="M14" s="7">
         <v>1638</v>
@@ -4157,13 +4169,13 @@
         <v>1535764</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4231,13 +4243,13 @@
         <v>30768</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="H16" s="7">
         <v>99</v>
@@ -4246,13 +4258,13 @@
         <v>84488</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="M16" s="7">
         <v>131</v>
@@ -4261,13 +4273,13 @@
         <v>115256</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>275</v>
+        <v>150</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,13 +4294,13 @@
         <v>934635</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="H17" s="7">
         <v>1459</v>
@@ -4297,13 +4309,13 @@
         <v>1061529</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="M17" s="7">
         <v>2433</v>
@@ -4312,13 +4324,13 @@
         <v>1996164</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>285</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4386,13 +4398,13 @@
         <v>129993</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="H19" s="7">
         <v>267</v>
@@ -4401,13 +4413,13 @@
         <v>189553</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="M19" s="7">
         <v>386</v>
@@ -4416,13 +4428,13 @@
         <v>319546</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>293</v>
+        <v>91</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4437,13 +4449,13 @@
         <v>3251065</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="H20" s="7">
         <v>5087</v>
@@ -4452,13 +4464,13 @@
         <v>3610813</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M20" s="7">
         <v>8340</v>
@@ -4467,13 +4479,13 @@
         <v>6861878</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>303</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4529,7 +4541,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1409-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1409-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{641ADB90-6F91-40D4-9D55-D6670D042B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{266B0E50-75AC-4809-82B0-BBB60E87D565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FB0DA3FB-74FA-491B-9EB3-12C53E11FB67}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CBABEA57-12B0-41A0-94A8-BD112EE2661F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="263">
   <si>
     <t>Población con diagnóstico de asma en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -67,901 +67,766 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
   </si>
   <si>
     <t>2,1%</t>
   </si>
   <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de asma en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
   </si>
   <si>
     <t>2,2%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
   </si>
   <si>
     <t>97,8%</t>
   </si>
   <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de asma en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de asma en 2023 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
   </si>
   <si>
     <t>3,79%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
   </si>
   <si>
     <t>96,21%</t>
   </si>
   <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
   </si>
   <si>
     <t>94,97%</t>
   </si>
   <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de asma en 2023 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
   </si>
 </sst>
 </file>
@@ -1373,8 +1238,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A54E5E-8D2D-4F07-89A6-D4AAF0DD9087}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104452E5-128D-42FD-A274-B90ECE217CDC}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1491,10 +1356,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D4" s="7">
-        <v>861</v>
+        <v>13201</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1506,10 +1371,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I4" s="7">
-        <v>3124</v>
+        <v>16537</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1521,10 +1386,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="N4" s="7">
-        <v>3985</v>
+        <v>29738</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1542,10 +1407,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>121</v>
+        <v>661</v>
       </c>
       <c r="D5" s="7">
-        <v>114904</v>
+        <v>690268</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1557,10 +1422,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>96</v>
+        <v>634</v>
       </c>
       <c r="I5" s="7">
-        <v>108781</v>
+        <v>680513</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1572,10 +1437,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>217</v>
+        <v>1295</v>
       </c>
       <c r="N5" s="7">
-        <v>223685</v>
+        <v>1370781</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1593,10 +1458,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1608,10 +1473,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1623,10 +1488,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1646,10 +1511,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D7" s="7">
-        <v>12340</v>
+        <v>17617</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1661,10 +1526,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="I7" s="7">
-        <v>13413</v>
+        <v>29009</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1676,10 +1541,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="N7" s="7">
-        <v>25753</v>
+        <v>46626</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1697,10 +1562,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>540</v>
+        <v>919</v>
       </c>
       <c r="D8" s="7">
-        <v>575364</v>
+        <v>1000330</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1712,10 +1577,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>538</v>
+        <v>912</v>
       </c>
       <c r="I8" s="7">
-        <v>571732</v>
+        <v>998782</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1727,10 +1592,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1078</v>
+        <v>1831</v>
       </c>
       <c r="N8" s="7">
-        <v>1147096</v>
+        <v>1999112</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1748,10 +1613,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1763,10 +1628,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>937</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1027791</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1778,10 +1643,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1873</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2045738</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1801,10 +1666,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>17617</v>
+        <v>10006</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1816,10 +1681,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I10" s="7">
-        <v>29009</v>
+        <v>19161</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1831,10 +1696,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="N10" s="7">
-        <v>46626</v>
+        <v>29167</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1852,10 +1717,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>919</v>
+        <v>679</v>
       </c>
       <c r="D11" s="7">
-        <v>1000330</v>
+        <v>747617</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1867,10 +1732,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>912</v>
+        <v>688</v>
       </c>
       <c r="I11" s="7">
-        <v>998782</v>
+        <v>758013</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1882,10 +1747,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1831</v>
+        <v>1367</v>
       </c>
       <c r="N11" s="7">
-        <v>1999112</v>
+        <v>1505630</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1903,10 +1768,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1918,10 +1783,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>937</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1027791</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1933,10 +1798,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1873</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2045738</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1956,10 +1821,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D13" s="7">
-        <v>10006</v>
+        <v>24598</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1971,10 +1836,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I13" s="7">
-        <v>19161</v>
+        <v>31473</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1986,10 +1851,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="N13" s="7">
-        <v>29167</v>
+        <v>56071</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2007,10 +1872,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>679</v>
+        <v>887</v>
       </c>
       <c r="D14" s="7">
-        <v>747617</v>
+        <v>923141</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2022,10 +1887,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>688</v>
+        <v>973</v>
       </c>
       <c r="I14" s="7">
-        <v>758013</v>
+        <v>1020428</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2037,10 +1902,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1367</v>
+        <v>1860</v>
       </c>
       <c r="N14" s="7">
-        <v>1505630</v>
+        <v>1943569</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2058,10 +1923,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2073,10 +1938,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2088,10 +1953,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2105,46 +1970,46 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="D16" s="7">
-        <v>24598</v>
+        <v>65421</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>88</v>
+      </c>
+      <c r="I16" s="7">
+        <v>96180</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>30</v>
-      </c>
-      <c r="I16" s="7">
-        <v>31473</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="N16" s="7">
-        <v>56071</v>
+        <v>161602</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>94</v>
@@ -2162,10 +2027,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>887</v>
+        <v>3146</v>
       </c>
       <c r="D17" s="7">
-        <v>923141</v>
+        <v>3361358</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>97</v>
@@ -2177,10 +2042,10 @@
         <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>973</v>
+        <v>3207</v>
       </c>
       <c r="I17" s="7">
-        <v>1020428</v>
+        <v>3457736</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>100</v>
@@ -2189,22 +2054,22 @@
         <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>1860</v>
+        <v>6353</v>
       </c>
       <c r="N17" s="7">
-        <v>1943569</v>
+        <v>6819092</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2213,10 +2078,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2228,10 +2093,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3295</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3553916</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2243,10 +2108,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6504</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6980694</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2259,171 +2124,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>63</v>
-      </c>
-      <c r="D19" s="7">
-        <v>65421</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7">
-        <v>88</v>
-      </c>
-      <c r="I19" s="7">
-        <v>96180</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" s="7">
-        <v>151</v>
-      </c>
-      <c r="N19" s="7">
-        <v>161602</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3146</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3361358</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3207</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3457736</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6353</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6819092</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3295</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3553916</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6504</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6980694</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2436,8 +2145,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB7A566B-40D2-4DAF-BE4F-39942AD5E4D1}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D195256D-3317-4E4D-B58F-B64522928441}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2453,7 +2162,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2554,49 +2263,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7">
-        <v>3694</v>
+        <v>21590</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="I4" s="7">
-        <v>5008</v>
+        <v>23166</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="N4" s="7">
-        <v>8702</v>
+        <v>44756</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2605,49 +2314,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>109</v>
+        <v>631</v>
       </c>
       <c r="D5" s="7">
-        <v>112852</v>
+        <v>653210</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>110</v>
+        <v>643</v>
       </c>
       <c r="I5" s="7">
-        <v>108352</v>
+        <v>649673</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>219</v>
+        <v>1274</v>
       </c>
       <c r="N5" s="7">
-        <v>221204</v>
+        <v>1302883</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2656,10 +2365,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2671,10 +2380,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2686,10 +2395,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2709,49 +2418,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D7" s="7">
-        <v>17896</v>
+        <v>23038</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="H7" s="7">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I7" s="7">
-        <v>18158</v>
+        <v>45932</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="M7" s="7">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="N7" s="7">
-        <v>36054</v>
+        <v>68970</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2760,49 +2469,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>522</v>
+        <v>929</v>
       </c>
       <c r="D8" s="7">
-        <v>540358</v>
+        <v>999393</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="H8" s="7">
-        <v>533</v>
+        <v>936</v>
       </c>
       <c r="I8" s="7">
-        <v>541321</v>
+        <v>996981</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="M8" s="7">
-        <v>1055</v>
+        <v>1865</v>
       </c>
       <c r="N8" s="7">
-        <v>1081679</v>
+        <v>1996374</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2811,10 +2520,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2826,10 +2535,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2841,10 +2550,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2864,49 +2573,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>23038</v>
+        <v>11470</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" s="7">
+        <v>29</v>
+      </c>
+      <c r="I10" s="7">
+        <v>30874</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M10" s="7">
+        <v>40</v>
+      </c>
+      <c r="N10" s="7">
+        <v>42344</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="H10" s="7">
-        <v>41</v>
-      </c>
-      <c r="I10" s="7">
-        <v>45932</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="M10" s="7">
-        <v>63</v>
-      </c>
-      <c r="N10" s="7">
-        <v>68970</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,49 +2624,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>929</v>
+        <v>685</v>
       </c>
       <c r="D11" s="7">
-        <v>999393</v>
+        <v>748082</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="H11" s="7">
-        <v>936</v>
+        <v>707</v>
       </c>
       <c r="I11" s="7">
-        <v>996981</v>
+        <v>754137</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="M11" s="7">
-        <v>1865</v>
+        <v>1392</v>
       </c>
       <c r="N11" s="7">
-        <v>1996374</v>
+        <v>1502219</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,10 +2675,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2981,10 +2690,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2996,10 +2705,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3019,49 +2728,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7">
-        <v>11470</v>
+        <v>30086</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H13" s="7">
+        <v>39</v>
+      </c>
+      <c r="I13" s="7">
+        <v>41186</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="M13" s="7">
+        <v>69</v>
+      </c>
+      <c r="N13" s="7">
+        <v>71273</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="H13" s="7">
-        <v>29</v>
-      </c>
-      <c r="I13" s="7">
-        <v>30874</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="M13" s="7">
-        <v>40</v>
-      </c>
-      <c r="N13" s="7">
-        <v>42344</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3070,49 +2779,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>685</v>
+        <v>902</v>
       </c>
       <c r="D14" s="7">
-        <v>748082</v>
+        <v>907481</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H14" s="7">
+        <v>920</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1002593</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1822</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1910073</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H14" s="7">
-        <v>707</v>
-      </c>
-      <c r="I14" s="7">
-        <v>754137</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1392</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1502219</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>183</v>
-      </c>
       <c r="P14" s="7" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>142</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,10 +2830,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3136,10 +2845,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3151,10 +2860,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3168,55 +2877,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="D16" s="7">
-        <v>30086</v>
+        <v>86185</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="H16" s="7">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="I16" s="7">
-        <v>41186</v>
+        <v>141158</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="M16" s="7">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="N16" s="7">
-        <v>71273</v>
+        <v>227343</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3225,49 +2934,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>902</v>
+        <v>3147</v>
       </c>
       <c r="D17" s="7">
-        <v>907481</v>
+        <v>3308165</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
-        <v>920</v>
+        <v>3206</v>
       </c>
       <c r="I17" s="7">
-        <v>1002593</v>
+        <v>3403384</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="M17" s="7">
-        <v>1822</v>
+        <v>6353</v>
       </c>
       <c r="N17" s="7">
-        <v>1910073</v>
+        <v>6711549</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>86</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3276,10 +2985,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3291,10 +3000,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3306,10 +3015,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3322,171 +3031,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>84</v>
-      </c>
-      <c r="D19" s="7">
-        <v>86185</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H19" s="7">
-        <v>132</v>
-      </c>
-      <c r="I19" s="7">
-        <v>141158</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="M19" s="7">
-        <v>216</v>
-      </c>
-      <c r="N19" s="7">
-        <v>227343</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3147</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3308165</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3206</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3403384</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6353</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6711549</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3499,8 +3052,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F48474-B773-4E3D-98BD-544C229FB799}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7AD98AF-13EA-435F-9BC9-609A4C7319B0}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3516,7 +3069,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3617,49 +3170,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D4" s="7">
-        <v>2062</v>
+        <v>30458</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="H4" s="7">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="I4" s="7">
-        <v>4370</v>
+        <v>22104</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>217</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="M4" s="7">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="N4" s="7">
-        <v>6432</v>
+        <v>52562</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>53</v>
+        <v>193</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3668,49 +3221,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>116</v>
+        <v>698</v>
       </c>
       <c r="D5" s="7">
-        <v>99920</v>
+        <v>604983</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>198</v>
       </c>
       <c r="H5" s="7">
-        <v>233</v>
+        <v>1192</v>
       </c>
       <c r="I5" s="7">
-        <v>126363</v>
+        <v>652747</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>223</v>
+        <v>24</v>
       </c>
       <c r="M5" s="7">
-        <v>349</v>
+        <v>1890</v>
       </c>
       <c r="N5" s="7">
-        <v>226283</v>
+        <v>1257730</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>61</v>
+        <v>200</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,10 +3272,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3734,10 +3287,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1237</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>674851</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3749,10 +3302,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1967</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1310292</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3772,49 +3325,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D7" s="7">
-        <v>29495</v>
+        <v>45128</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="H7" s="7">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="I7" s="7">
-        <v>19319</v>
+        <v>37727</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="M7" s="7">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="N7" s="7">
-        <v>48814</v>
+        <v>82855</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>232</v>
+        <v>16</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>209</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3823,49 +3376,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>582</v>
+        <v>926</v>
       </c>
       <c r="D8" s="7">
-        <v>520328</v>
+        <v>1146415</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="H8" s="7">
-        <v>959</v>
+        <v>1453</v>
       </c>
       <c r="I8" s="7">
-        <v>572674</v>
+        <v>919710</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="M8" s="7">
-        <v>1541</v>
+        <v>2379</v>
       </c>
       <c r="N8" s="7">
-        <v>1093002</v>
+        <v>2066125</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>240</v>
+        <v>25</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,10 +3427,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>963</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1191543</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3889,10 +3442,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>994</v>
+        <v>1515</v>
       </c>
       <c r="I9" s="7">
-        <v>591993</v>
+        <v>957437</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3904,10 +3457,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1606</v>
+        <v>2478</v>
       </c>
       <c r="N9" s="7">
-        <v>1141816</v>
+        <v>2148980</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3927,49 +3480,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D10" s="7">
-        <v>44659</v>
+        <v>23309</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>242</v>
+        <v>114</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="H10" s="7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I10" s="7">
-        <v>41365</v>
+        <v>36744</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="M10" s="7">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="N10" s="7">
-        <v>86024</v>
+        <v>60053</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>249</v>
+        <v>115</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,49 +3531,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>926</v>
+        <v>655</v>
       </c>
       <c r="D11" s="7">
-        <v>993273</v>
+        <v>678723</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>251</v>
+        <v>123</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="H11" s="7">
-        <v>1453</v>
+        <v>983</v>
       </c>
       <c r="I11" s="7">
-        <v>1017391</v>
+        <v>895244</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="M11" s="7">
-        <v>2379</v>
+        <v>1638</v>
       </c>
       <c r="N11" s="7">
-        <v>2010665</v>
+        <v>1573967</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>259</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,10 +3582,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>963</v>
+        <v>673</v>
       </c>
       <c r="D12" s="7">
-        <v>1037932</v>
+        <v>702032</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4044,10 +3597,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1515</v>
+        <v>1044</v>
       </c>
       <c r="I12" s="7">
-        <v>1058756</v>
+        <v>931988</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4059,10 +3612,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2478</v>
+        <v>1717</v>
       </c>
       <c r="N12" s="7">
-        <v>2096689</v>
+        <v>1634020</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4082,49 +3635,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D13" s="7">
-        <v>23009</v>
+        <v>28381</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>125</v>
+        <v>231</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="H13" s="7">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="I13" s="7">
-        <v>40011</v>
+        <v>132773</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="M13" s="7">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="N13" s="7">
-        <v>63020</v>
+        <v>161154</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,49 +3686,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>655</v>
+        <v>974</v>
       </c>
       <c r="D14" s="7">
-        <v>702909</v>
+        <v>898450</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>134</v>
+        <v>240</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="H14" s="7">
-        <v>983</v>
+        <v>1459</v>
       </c>
       <c r="I14" s="7">
-        <v>832855</v>
+        <v>958310</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="M14" s="7">
-        <v>1638</v>
+        <v>2433</v>
       </c>
       <c r="N14" s="7">
-        <v>1535764</v>
+        <v>1856760</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,10 +3737,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>673</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>725918</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4199,10 +3752,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1044</v>
+        <v>1558</v>
       </c>
       <c r="I15" s="7">
-        <v>872866</v>
+        <v>1091083</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4214,10 +3767,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1717</v>
+        <v>2564</v>
       </c>
       <c r="N15" s="7">
-        <v>1598784</v>
+        <v>2017914</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4231,55 +3784,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="D16" s="7">
-        <v>30768</v>
+        <v>127276</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>276</v>
+        <v>223</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>277</v>
+        <v>76</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="H16" s="7">
-        <v>99</v>
+        <v>267</v>
       </c>
       <c r="I16" s="7">
-        <v>84488</v>
+        <v>229348</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="M16" s="7">
-        <v>131</v>
+        <v>386</v>
       </c>
       <c r="N16" s="7">
-        <v>115256</v>
+        <v>356624</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>150</v>
+        <v>254</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,49 +3841,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>974</v>
+        <v>3253</v>
       </c>
       <c r="D17" s="7">
-        <v>934635</v>
+        <v>3328571</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>284</v>
+        <v>229</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>286</v>
+        <v>85</v>
       </c>
       <c r="H17" s="7">
-        <v>1459</v>
+        <v>5087</v>
       </c>
       <c r="I17" s="7">
-        <v>1061529</v>
+        <v>3426011</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="M17" s="7">
-        <v>2433</v>
+        <v>8340</v>
       </c>
       <c r="N17" s="7">
-        <v>1996164</v>
+        <v>6754583</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>157</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,10 +3892,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3372</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3455847</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4354,10 +3907,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1558</v>
+        <v>5354</v>
       </c>
       <c r="I18" s="7">
-        <v>1146017</v>
+        <v>3655359</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4369,10 +3922,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2564</v>
+        <v>8726</v>
       </c>
       <c r="N18" s="7">
-        <v>2111420</v>
+        <v>7111207</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4385,171 +3938,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>119</v>
-      </c>
-      <c r="D19" s="7">
-        <v>129993</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="H19" s="7">
-        <v>267</v>
-      </c>
-      <c r="I19" s="7">
-        <v>189553</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="M19" s="7">
-        <v>386</v>
-      </c>
-      <c r="N19" s="7">
-        <v>319546</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3253</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3251065</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5087</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3610813</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8340</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6861878</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3372</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3381058</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5354</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3800366</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8726</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7181424</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
